--- a/data/Item_magic.xlsx
+++ b/data/Item_magic.xlsx
@@ -34,7 +34,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>wishing latern</t>
+    <t>Wishing_Lantern</t>
   </si>
   <si>
     <t>flask of the oasis</t>
@@ -464,7 +464,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>

--- a/data/Item_magic.xlsx
+++ b/data/Item_magic.xlsx
@@ -34,7 +34,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>Wishing_Lantern</t>
+    <t>Wishing Lantern</t>
   </si>
   <si>
     <t>flask of the oasis</t>
